--- a/Latitudes and Longitudes.xlsx
+++ b/Latitudes and Longitudes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/958c084b316163e4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E3E28C1-1F03-4D76-B48F-0C82EBEE8D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{4E3E28C1-1F03-4D76-B48F-0C82EBEE8D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{708AAE98-3F26-434C-BC9B-737BBB52348A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DFF1D7BC-A68C-466C-A4D4-D327C759F9E8}"/>
+    <workbookView xWindow="8580" yWindow="1300" windowWidth="14400" windowHeight="7360" xr2:uid="{DFF1D7BC-A68C-466C-A4D4-D327C759F9E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,13 +224,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -260,6 +272,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -579,7 +595,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,54 +616,58 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>56.504559999999998</v>
-      </c>
-      <c r="C2">
-        <v>-2.9578199999999999</v>
+      <c r="B2" s="7">
+        <v>56.488053000000001</v>
+      </c>
+      <c r="C2" s="6">
+        <v>-2.9269180000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>56.46143</v>
-      </c>
-      <c r="C5">
-        <v>-2.9681099999999998</v>
+      <c r="B5" s="6">
+        <v>56.461947000000002</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-2.9848780000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>56.456349600000003</v>
-      </c>
-      <c r="C6">
-        <v>-2.9858172000000001</v>
+      <c r="B6" s="6">
+        <v>56.456257999999998</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-2.9873440000000002</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>56.470589799999999</v>
-      </c>
-      <c r="C7">
-        <v>-2.9663316000000002</v>
+      <c r="B7" s="6">
+        <v>56.470922000000002</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-2.9574349999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -659,50 +679,44 @@
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>56.46143</v>
-      </c>
-      <c r="C9">
-        <v>-2.9681099999999998</v>
-      </c>
     </row>
     <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>56.456976300000001</v>
-      </c>
-      <c r="C10">
-        <v>-2.9713991000000002</v>
+      <c r="B10" s="6">
+        <v>56.457205999999999</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-2.9697140000000002</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>56.468755600000001</v>
-      </c>
-      <c r="C11">
-        <v>-3.0078532</v>
+      <c r="B11" s="6">
+        <v>56.468654632568303</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-3.0098328590393</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B12" s="6">
+        <v>56.457287999999998</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-2.9671720000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>56.458403300000001</v>
-      </c>
-      <c r="C13">
-        <v>-2.9676585000000002</v>
-      </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -713,11 +727,11 @@
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>56.464760200000001</v>
-      </c>
-      <c r="C15">
-        <v>-2.9716304999999998</v>
+      <c r="B15" s="6">
+        <v>56.464595000000003</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-2.9692530000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -742,44 +756,44 @@
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
-        <v>56.485135900000003</v>
-      </c>
-      <c r="C20">
-        <v>-2.8954708999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="6">
+        <v>56.482513427734297</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-2.89078640937805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21">
-        <v>56.484952100000001</v>
-      </c>
-      <c r="C21">
-        <v>-2.9039554000000001</v>
+      <c r="B21" s="6">
+        <v>56.484904999999998</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-2.901802</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
-        <v>56.466162799999999</v>
-      </c>
-      <c r="C22">
-        <v>-2.9611526000000001</v>
+      <c r="B22" s="6">
+        <v>56.465626999999998</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-2.962418</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
-        <v>56.467759100000002</v>
-      </c>
-      <c r="C23">
-        <v>-2.8820855000000001</v>
+      <c r="B23" s="6">
+        <v>56.468086999999997</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2.8753649999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -791,22 +805,22 @@
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
-        <v>56.456311399999997</v>
-      </c>
-      <c r="C25">
-        <v>-2.9774986999999999</v>
+      <c r="B25" s="6">
+        <v>56.45581</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-2.9769830000000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
-        <v>56.457489000000002</v>
-      </c>
-      <c r="C26">
-        <v>-2.9692137000000001</v>
+      <c r="B26" s="6">
+        <v>56.457287999999998</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-2.9671720000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -823,33 +837,21 @@
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29">
-        <v>56.485135900000003</v>
-      </c>
-      <c r="C29">
-        <v>-2.8954708999999998</v>
-      </c>
     </row>
     <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B30">
-        <v>56.484952100000001</v>
-      </c>
-      <c r="C30">
-        <v>-2.9039554000000001</v>
-      </c>
     </row>
     <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B31">
-        <v>56.455212799999998</v>
-      </c>
-      <c r="C31">
-        <v>-2.9882995999999999</v>
+      <c r="B31" s="6">
+        <v>56.455201000000002</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-2.9794578</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -881,78 +883,60 @@
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B37">
-        <v>56.4582652</v>
-      </c>
-      <c r="C37">
-        <v>-2.9677771000000002</v>
+      <c r="B37" s="6">
+        <v>56.458742999999998</v>
+      </c>
+      <c r="C37" s="6">
+        <v>-2.967209</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B38">
-        <v>56.457489000000002</v>
-      </c>
-      <c r="C38">
-        <v>-2.9692137000000001</v>
-      </c>
     </row>
     <row r="39" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B39">
-        <v>56.4582476</v>
-      </c>
-      <c r="C39">
-        <v>-2.9843315000000001</v>
+      <c r="B39" s="6">
+        <v>56.457252502441399</v>
+      </c>
+      <c r="C39" s="6">
+        <v>-2.9759604930877601</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B40">
-        <v>56.467747699999997</v>
-      </c>
-      <c r="C40">
-        <v>-2.9599869999999999</v>
+      <c r="B40" s="6">
+        <v>56.467702000000003</v>
+      </c>
+      <c r="C40" s="6">
+        <v>-2.957808</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B41">
-        <v>56.479833300000003</v>
-      </c>
-      <c r="C41">
-        <v>-3.0197919</v>
+      <c r="B41" s="6">
+        <v>56.464931999999997</v>
+      </c>
+      <c r="C41" s="6">
+        <v>-3.0599080000000001</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B42">
-        <v>56.456976300000001</v>
-      </c>
-      <c r="C42">
-        <v>-2.9713991000000002</v>
-      </c>
     </row>
     <row r="43" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B43">
-        <v>56.458403300000001</v>
-      </c>
-      <c r="C43">
-        <v>-2.9676585000000002</v>
-      </c>
     </row>
     <row r="44" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
@@ -978,44 +962,32 @@
       <c r="A48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B48">
-        <v>56.455212799999998</v>
-      </c>
-      <c r="C48">
-        <v>-2.9882995999999999</v>
-      </c>
     </row>
     <row r="49" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B49">
-        <v>56.478378200000002</v>
-      </c>
-      <c r="C49">
-        <v>-3.0602293999999999</v>
+      <c r="B49" s="6">
+        <v>56.476193000000002</v>
+      </c>
+      <c r="C49" s="6">
+        <v>-3.0552549999999998</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B50">
-        <v>56.456062500000002</v>
-      </c>
-      <c r="C50">
-        <v>-2.9874657</v>
-      </c>
     </row>
     <row r="51" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B51">
-        <v>56.462249900000003</v>
-      </c>
-      <c r="C51">
-        <v>-2.9863921000000002</v>
+      <c r="B51" s="6">
+        <v>56.462331900000002</v>
+      </c>
+      <c r="C51" s="6">
+        <v>-2.9842564</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1027,34 +999,16 @@
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B53">
-        <v>56.456349600000003</v>
-      </c>
-      <c r="C53">
-        <v>-2.9858172000000001</v>
-      </c>
     </row>
     <row r="54" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B54">
-        <v>56.456062500000002</v>
-      </c>
-      <c r="C54">
-        <v>-2.9874657</v>
-      </c>
     </row>
     <row r="55" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B55">
-        <v>56.458403300000001</v>
-      </c>
-      <c r="C55">
-        <v>-2.9676585000000002</v>
-      </c>
     </row>
     <row r="56" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
@@ -1071,12 +1025,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>47</v>
       </c>
@@ -1085,33 +1039,33 @@
       <c r="A61" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B61">
-        <v>56.481171199999999</v>
-      </c>
-      <c r="C61">
-        <v>-3.0463189000000002</v>
+      <c r="B61" s="6">
+        <v>56.484634999999997</v>
+      </c>
+      <c r="C61" s="6">
+        <v>-3.0429369999999998</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B62">
-        <v>56.455829899999998</v>
-      </c>
-      <c r="C62">
-        <v>-3.0252737000000001</v>
+      <c r="B62" s="6">
+        <v>56.456212999999998</v>
+      </c>
+      <c r="C62" s="6">
+        <v>-3.0251000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B63">
-        <v>56.457732200000002</v>
-      </c>
-      <c r="C63">
-        <v>-2.9806590000000002</v>
+      <c r="B63" s="6">
+        <v>56.457344999999997</v>
+      </c>
+      <c r="C63" s="6">
+        <v>-2.9782690000000001</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1119,21 +1073,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B65">
-        <v>56.467747699999997</v>
-      </c>
-      <c r="C65">
-        <v>-2.9599869999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>